--- a/story/主线剧情/main/level_main_08-15_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-15_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="499">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="感染者战士"] 这里就是了。
 </t>
   </si>
@@ -1015,6 +1021,990 @@
   </si>
   <si>
     <t xml:space="preserve">違う！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Here we are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] ...You don't need to bother yourself with this, Talulah. The tractor's been missing for months. They were probably stopped by the Patrol Unit. There's not much we can do about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Even if all we can do is find their bodies, we'll at least be giving their families some closure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] If the intel recon gave us is correct, this should be the area where they'd gone missing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Talulah, snap out of it! Everything they said is just a load of horseshit.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I'm fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] They're just a bunch of heartless bastards... Don't let it get to you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] None of them had the willpower to keep going, to leave the tundra! They fought so many battles with you, and they thought you a coward?! You're the most fearless soldier among us!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Talulah, trust me. All of us follow you by will!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Captain Buldrokkas'tee used to be an Ursus soldier, but we all know he's the most steadfast man we have! All of us trust him!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Not necessarily. He's strong. Way too strong. Stubborn, too. The people who didn't trust him were just afraid to speak up. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It only takes a brief moment for trust to completely crumble. If all the people who followed Patriot died one day, would the ones who come after them be as steadfast as them? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Rumors can destroy us. Before there are rumors, those who are innocent are innocent, and those who are skeptical of others are also innocent. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But no one is innocent once rumors begin to spread.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] But what does your upbringing has to do with anything?! You've done so much for all of us!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It's fine. Calm down. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Besides, I haven't really done all that much for them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Come on, don't say that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Are you sure you want to go by yourself? Faust has been tagging along with those crossbow guys lately, and he's really getting the hang of it. If the guerrillas aren't around, you could bring them with... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Protecting the Infected traveling with us is our top priority. We aren't fighting this war just to fight a war. Our goal is to help our fellow men survive. Don't put the cart before the horse.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Protecting them is our top priority.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Know this by heart, and make sure everyone else does as well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Well... godspeed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Don't worry. It's just negotiating with the locals. Everything will be fine. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At a nearby village.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Before, I probably would've just run inside and started asking questions right away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I wonder when did I become like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Hiding and sneaking around... It was just being suspicious and cautious at first, but this is practically antagonizing everyone now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I'm not even sure if it is unexpected things that I'm worried about or a repeat of those tragedies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] What a rundown place. Looks like they didn't have much of a harvest this year. Everyone looks so tired.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Weird. It should've been a while since the last time this village resettled, but there's a lot of tractor marks around the village's entrance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] There are scraps at the assembly workshop... but I don't think they're from the village's old tractors. The authentication box is gone. If the vehicle belonged to the village, there's no reason to take that out...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It's getting dark. I should take a look at the junkyard. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] This is weird. There's your household garbage, but there isn't much else. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No equipment for processing spent Originium here? If it's not in the junkyard, then where? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] It's winter, so there should be wheat straws and warming grass husks everywhere. Did they run into food problems? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...No... that's not right. They burned them. I need to check out their granary.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] What's this? What... What happened here? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] There's Originium residue all over the place... and the ground is dug up all over the place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Claw marks... on the granary's door—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Ahh—!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "] Who's there?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talulah turns around.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She finds an Ursus farmer standing there with his guard up. The farmer notices how Talulah is dressed and sets his shovel down. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Geez... what's the matter with you, coming inside the village without saying a word? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Haven't ever seen you before... Are you from the Gendarmerie? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] You aren't here for the rent, are you? We already paid our Originium tax. Hell, the taxman took our food too while he was at it. There isn't much more we can pony up.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I'm here since I'm investigating the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Oh, Infected? We don't have any here.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Has any Infected passed by?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We received a message. I know there's been Infected here. If you know what's good for you, spill it.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Urgh, can't fool you, eh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Those scumbags. They said no one knew they were passing through here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] So they were here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Damn right they did. They had those scary weapons on them. Scared the life out of us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] We didn't have the guts to go against them, and we didn't try to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] After that, they even took all of our food, those bastards! Please, you have to get these Infected... these criminals for us! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] That's not right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] That's not right...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] How dare you say that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] How dare you say that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] How dare you say that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] What's the matter with you, ma'am? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You heard their cries!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You heard them crying out for help...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You heard them clawing at the door with their fingers!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] W-What are you... ma'am...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] You right in the head?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Hey, over here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Any of you seen her before? Where is she from? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Right, I haven't ever heard an accent like that before!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] ...Yeah, that's right! She doesn't have a mask on... If she was here to investigate the Infected, she'd be all decked out in protective equipment! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Who are you?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Answer me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Just like the people you murdered, I'm an Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] We've done nothing wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You locked them in here. You let them die here. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] What are we supposed to do? We don't even have any food left for ourselves! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You could've chased them away or just never allowed them in... You could've just attacked them or outright killed them, and I wouldn't be here complaining to you right now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But you tricked them. You lured them into your empty storehouse, locked the doors, and starved them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They were so hungry, they couldn't even use their Arts... They were here only to panhandle. They weren't here to attack you. They didn't even have the strength to fight back. They were just normal people. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Normal? Those Infected? Don't make me laugh! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Who are you to reason with me, you Infected scumbag? You're just a freak! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You kept the storehouse locked until the Originium crystals stabilized. Then you disposed their bodies with the dried up Originium...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They had families, they had friends, they had places they wanted to be... There's not even anything left of them. Infected often die and leave no traces left of their existence behind. That happens way too often, but now there isn't even a way for us to find out where their ashes have gone. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] What are we supposed to do? It's not like we've got much to feed ourselves! Life's not easy for us either! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Then why did you lie to them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] What are you talking about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] How could we have known what was going to happen to them? And what were we supposed to do? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] That's just an excuse. You saw them starving... You knew they had no weapons to fend themselves with. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You did this because it was... convenient.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] From the beginning, you never... No, actually... Ha. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Even if they weren't Infected, you would've done the same thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] (Time to get rid of her. Get the sentries!)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="You will come to see. These great lands you threw yourself to do not want you.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Then what do you want? Look, it's all in the past. We'll even apologize. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] We can pretend you've never been here, just like those other folks were never here... All you have to do is walk away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Who do you even think they were?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Huh? Whatever you are, that's what they were. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You thought them weak, and in that case, that makes me a weakling who knows not how to fight back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] ...Ugh... Just get out of here already. We don't want no trouble here! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They were here, begging at your feet, and what did you do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="You will see your thoughts, your actions, become nonexistent. ", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You're despicable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] There will be no peace in this world while people like you still walk it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The Infected patrols haven't been to your village in three years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] The noble family that controlled the settlements here died long ago during the Great Rebellion. Everything teetered on the edge of chaos, and your village has been left untended for years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And yet... you killed all those people even though you had nothing to gain from their deaths.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If you had even a tiny bit of kindness in you... you would've let them go. The whole village heard their cries, but none of you did anything until they died, one after another. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If you still had any decency in you, you wouldn't have done anything this wretched.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I hate you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="You will see them spurn all you revered, your life, your dignity and philosophy void of all significance.",  x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 여기로군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] ……탈룰라…… 이번 일은 신경 쓰지 않아도 돼. 감염자 견인차가 실종된 지 벌써 몇 개월이나 됐어. 감시팀에게 저지당했겠지, 우리가 할 수 있는 일은 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 시신이라도 찾아서, 다른 사람에게 넘겨주고 싶어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 정찰대원이 틀리지 않았다면, 그들이 실종된 곳은 대략 이쯤일 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 탈룰라! 관둬, 그런 쓸데없는 생각은 하지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그런 적 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 양심도 없는 놈들은…… 무시해 버려!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 저 녀석들은 애초부터 설원을 벗어날 각오가 되어 있지 않았어! 함께 싸웠다면서, 어떻게 네가 죽음을 두려워하지 않는다는 것도 모를 수 있지?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 탈룰라, 날 믿어. 우린 모두 널 따를 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 불드록카스티 대위님도 우르수스 제국의 군인이었지만 우리의 가장 듬직한 전사라는 걸 모두 알고 있다. 모두가 그분을 따른다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 글쎄. 단지 패트리어트가 너무 강하고 너무 굳건해서 믿지 않는 사람도 감히 말을 못 하는 것일 수도 있지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 신뢰가 무너지는 건 한순간이야. 패트리어트를 따르던 사람들이 모두 죽은 뒤에도 과연 그런 믿음을 보여줄 수 있을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 소문은 사람을 무너뜨리지. 소문이 돌기 전에는 결백한 사람도, 의심스러운 사람 모두 결백해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 하지만 소문이 퍼지는 순간, 아무도 결백하지 않게 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 하지만 네 출신이 또 무슨 상관이야? 네가 얼마나 많은 피를 흘렸는데!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 괜찮아, 그럴 것 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 게다가 아직 피를 흘린 것도 아니니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 후우…… 그렇게 말하지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 혼자 갈 셈이야? 파우스트는 요새 활을 다루는 무리를 따라다니던데, 성장이 무척 빨라. 유격대가 없으면 그들과 같이 가는 것도 괜……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 다른 감염자를 지키는 게 무엇보다 중요해. 싸움을 위한 싸움이 아니라, 다른 동료들이 끝까지 살아남을 수 있도록 싸우는 거야. 최초의 목적을 잊어선 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 가장 중요한 건 사람들의 목숨이니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그런 생각을 계속 알려야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그럼…… 부디 조심해라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 안심해, 현지인을 만나보려는 것뿐이니까 별문제는 없을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인근의 작은 마을
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (예전의 나라면, 곧장 마을로 들어가 물어봤겠지.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (언제부터 이렇게 변한거지.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (사람들의 눈을 피해 이리저리 숨어다니고…… 불신과 경계가 점점 적개심으로 변하기 시작했어.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (난 뜻밖의 일이 벌어지는 게 두려운 걸까, 아니면 비극이 재현되는 게 두려운 걸까……?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (피폐한 마을이구나. 올해 수확이 좋지 않았나 보네, 모두 지쳐 보여.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (이상해, 오랫동안 이주한 적 없는 마을인데 견인차 바퀴 자국이 마을 어귀에 가득해.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (작업장의 폐자재…… 이건 마을에서 버린 오래된 견인차가 아냐. 인증박스도 보이지 않고. 마을의 차량이라면 인증박스를 가져가지 않아도 될 텐데……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (곧 밤이 될 거야. 쓰레기장에 가보는 게 좋겠어.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (뭔가 이상해. 일반 쓰레기 외에 다른 쓰레기가 보이지 않아.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (다 쓴 오리지늄을 처리하는 기계가 한 대도 보이지 않아. 쓰레기장이 아니라면 어디에 둔 거지?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (겨울이면 흔히 볼 수 있는 지푸라기나 워밍 그라스도 보이지 않고… 혹시 식량에 문제라도 있는 걸까?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (……아니…… 아니야. 전부 다 태워버린 거야. 아무래도 식량 창고로 가봐야겠어.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (어떻게 된 거지? 무…… 무슨 일이 일어난 거야?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (바닥에 쌓여 있는 오리지늄 가루들…… 울퉁불퉁 파인 바닥……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (앗, 이건 긁힌 흔적! 창고 문에 긁힌 흔적이 있어……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"] 뭐하는 놈이냐?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라가 뒤를 돌아보았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라의 옷차림을 본 우르수스 농민이 들고 있던 삽을 내려놓았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] ……어찌 된 겁니까? 마을에 오셨으면서 어찌 말 한마디 없으셨습니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 어쩐 일로 오셨습니까? 한 번도 뵌 적이 없는 것 같은데…… 헌병이신가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 아니면 세금을 걷으러 오신 겁니까? 오리지늄세와 식량을 조세관에게 납부한 터라 더는 드릴 것이 없습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 감염자를 조사하러 왔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 아, 감염자 말입니까? 저희 마을에는 감염자가 없습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그렇다면 감염자가 이곳을 지나간 적이 있나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 없습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 소식을 듣고 왔다. 확실히 이곳을 지나간 감염자가 있어. 신중히 말하는 게 좋을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 이거 참…… 역시 그냥 넘어가진 못하겠군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 망할 놈들, 자신들이 이곳을 지나간 건 아무도 모를 거라고 했는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그러니까 확실히 있었다는 거로군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 예, 끔찍한 무기를 들고 있었습니다. 그 바람에 어찌나 놀랐는지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 놈들에게 저항할 수도, 놈들을 막을 수도 없었습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 게다가 저희 식량까지 빼앗아 가버렸지 뭡니까. 악행을 일삼는 감염자 놈들을 꼭 잡아 주십시오……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (아니야……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아니야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그게 아니잖아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (어떻게 감히 그런 말을 할 수 있지?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 어떻게 그런 말을……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (어떻게 그런 말을!!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 뭐, 뭐야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 왜 그러십니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (그들의 울부짖음을 들었잖아!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (살려달라는 절규를 들었다고……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] (손톱으로 창고의 문을 긁어내리는 소리를 들었다고!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 왜, 왜 그러십니까……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 설마 귀신에 홀린 건 아니시죠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 이봐, 이리들 와봐!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 이 사람 본 적 있어? 어디에서 온 사람인지 알아?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 처음 들어보는 목소리야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] ……그러게 말이야! 마스크도 안 쓰고…… 감염자 조사원이라면서 어떻게 보호장비도 없는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 당신, 정체가 뭐야?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 누구냐고 물었잖아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 감염자.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 뭐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희들에게 죽임을 당한 사람들과 같은, 감염자다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 우리 탓이 아니야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희가 여기에 가두는 바람에 모두 죽고 말았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 그래서 어쩌라고? 우리도 식량이 떨어졌는데!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그들을 쫓아내거나 마을에 들어오지 못하게 막을 수도 있었을 텐데…… 그랬다면 그들을 공격하고 죽였더라도 난 별말 안 했을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 하지만 너흰 그들을 속여서 텅 빈 창고에 가둔 채 산 채로 굶겨 죽였다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아츠조차 쓰지 못할 만큼 그들은 굶주렸겠지…… 그들은 구걸하듯시피 이곳에 온 거다. 너희들을 공격할 생각도, 맞설 힘도 없는 평범한 자들이었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 감염자 주제에 어디가 평범하다는 거야?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 귀 씻고 똑똑히 들어, 이 더러운 감염자야…… 자신이 얼마나 추악한 존재인지는 알고 있겠지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희는 창고를 폐쇄하고, 오리지늄 결정이 안정될 때까지 기다렸다가 그들의 시체와 말라버린 오리지늄을 함께 처리했다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그들에겐 가족과 배우자가 있었다, 가고 싶은 곳도 있었겠지…… 그런데 이제는 시체조차 남지 않았다. 감염자들은 원래 시체를 잘 남기지 않지만, 지금은 불타버린 한 줌의 잿더미조차 어디로 날아갔는지 알 수 없게 됐어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 우리라고 별수 있겠어? 우리도 헐벗고 굶주린 채 비참하게 살고 있다고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 왜 그들을 속인 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 무슨 말을 하는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 감염자가 무슨 짓을 할지 누가 알아? 우리는 또 뭘 할 수 있는데?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 핑계 대지 마. 너흰 그들의 굶주린 모습을 봤다…… 심지어 그들이 장비조차 없는 상태라는 것도 알고 있었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그런데도 너희가 그렇게 한 건…… 그게 가장 편했기 때문이겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희는 처음부터…… 큭, 아니……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 이곳을 찾아온 게 감염자가 아니라 평범한 사람이었더라도, 너희는 똑같이 그랬을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] (없애버려야겠어, 가서 보초병 불러!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="네 모든 걸 쏟아부었던 대륙이 널 원치 않는다는 걸 직접 보게 될 거다.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아니, 아니야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 그래서 어쩌겠다는 거냐? 이미 엎질러진 물 아닌가. 내가 사과하지, 감염자 나리.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 예전에 여길 왔던 녀석들처럼 당신도 못 본 걸로 해줄 수 있다…… 이대로 가기만 하면.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그들을 뭐라고 생각하지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 어? 그야 당신이랑 똑같은 사람이라 생각하지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그들을 약자로 여겼으니, 나 역시 반항할 줄 모르는 약자로 보겠군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] ……윽…… 요, 용서해 주십시오! 저흰 그냥 일을 키우고 싶지 않아서……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그들이 살려달라고 할 때 어떻게 행동했지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="네가 원하는 모든 것이 물거품이 되는 걸 보게 될 거다.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 난 너희같이 비열한 인간들을 증오한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희 같은 인간들이 이 땅에 살아 있는 한, 이 땅은 영원히 평온할 수 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 감염자 감시관도 이곳에 오지 않은 지 삼 년은 족히 된 것 같군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 이곳 마을을 소유했던 귀족들이 대반란 중에 숨을 거두고 혼란한 상황이 벌어지자, 아무도 마을에 관심을 보이지 않았겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그런 상황에서…… 너희는…… 자연스럽게…… 너희와 아무런 이해관계도 없는 사람들을 죽였다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 일말의 양심이라도 있었더라면…… 그들을 보내줄 수 있었을 거다. 하지만 그들이 죽어갈 때까지 모두가 그들의 절규를 모른 척했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 양심이 있었더라면 그렇게 악랄한 짓은 저지르지 않았을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너희들을 증오한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="네가 존경하던 모든 것이 외면당하는 것을 보게 될 거다. 생명과 존엄, 이념 모두 의미를 잃게 될 거다.",  x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안 돼!!
 </t>
   </si>
 </sst>
@@ -1373,1058 +2363,1844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>307</v>
+      </c>
+      <c r="D57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" t="s">
+        <v>308</v>
+      </c>
+      <c r="D58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>327</v>
+      </c>
+      <c r="D78" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
+        <v>334</v>
+      </c>
+      <c r="D87" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" t="s">
+        <v>335</v>
+      </c>
+      <c r="D88" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" t="s">
+        <v>337</v>
+      </c>
+      <c r="D90" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" t="s">
+        <v>338</v>
+      </c>
+      <c r="D91" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" t="s">
+        <v>339</v>
+      </c>
+      <c r="D92" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" t="s">
+        <v>340</v>
+      </c>
+      <c r="D93" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" t="s">
+        <v>343</v>
+      </c>
+      <c r="D96" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" t="s">
+        <v>344</v>
+      </c>
+      <c r="D97" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" t="s">
+        <v>345</v>
+      </c>
+      <c r="D98" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" t="s">
+        <v>346</v>
+      </c>
+      <c r="D99" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100" t="s">
+        <v>334</v>
+      </c>
+      <c r="D100" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" t="s">
+        <v>347</v>
+      </c>
+      <c r="D101" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
+        <v>348</v>
+      </c>
+      <c r="D102" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" t="s">
+        <v>351</v>
+      </c>
+      <c r="D105" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>352</v>
+      </c>
+      <c r="D106" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" t="s">
+        <v>334</v>
+      </c>
+      <c r="D107" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" t="s">
+        <v>353</v>
+      </c>
+      <c r="D108" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" t="s">
+        <v>354</v>
+      </c>
+      <c r="D109" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" t="s">
+        <v>355</v>
+      </c>
+      <c r="D110" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" t="s">
+        <v>354</v>
+      </c>
+      <c r="D112" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" t="s">
+        <v>357</v>
+      </c>
+      <c r="D113" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" t="s">
+        <v>359</v>
+      </c>
+      <c r="D115" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" t="s">
+        <v>360</v>
+      </c>
+      <c r="D116" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>361</v>
+      </c>
+      <c r="D117" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" t="s">
+        <v>362</v>
+      </c>
+      <c r="D118" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" t="s">
+        <v>364</v>
+      </c>
+      <c r="D120" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" t="s">
+        <v>365</v>
+      </c>
+      <c r="D121" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" t="s">
+        <v>367</v>
+      </c>
+      <c r="D123" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" t="s">
+        <v>368</v>
+      </c>
+      <c r="D124" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" t="s">
+        <v>372</v>
+      </c>
+      <c r="D128" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>250</v>
+      </c>
+      <c r="C129" t="s">
+        <v>373</v>
+      </c>
+      <c r="D129" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B130" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" t="s">
+        <v>374</v>
+      </c>
+      <c r="D130" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>97</v>
-      </c>
-      <c r="B101" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>84</v>
-      </c>
-      <c r="B107" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>103</v>
-      </c>
-      <c r="B108" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>105</v>
-      </c>
-      <c r="B110" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>106</v>
-      </c>
-      <c r="B111" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>107</v>
-      </c>
-      <c r="B113" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>108</v>
-      </c>
-      <c r="B114" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>109</v>
-      </c>
-      <c r="B115" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>110</v>
-      </c>
-      <c r="B116" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>111</v>
-      </c>
-      <c r="B117" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>114</v>
-      </c>
-      <c r="B120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>115</v>
-      </c>
-      <c r="B121" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>116</v>
-      </c>
-      <c r="B122" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>117</v>
-      </c>
-      <c r="B123" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>119</v>
-      </c>
-      <c r="B125" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>120</v>
-      </c>
-      <c r="B126" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>121</v>
-      </c>
-      <c r="B127" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>122</v>
-      </c>
-      <c r="B128" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>123</v>
-      </c>
-      <c r="B129" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>125</v>
-      </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="C131" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
